--- a/功能.xlsx
+++ b/功能.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4AEA43-3656-48F2-9BD1-301C22227617}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F120314-8265-47A0-B0EB-C07979B66CB7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="49">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +75,142 @@
   </si>
   <si>
     <t>退出房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -134,6 +271,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -585,4 +723,1092 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA42F6-9A66-444B-A1E0-9D0B92712CB9}">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="str">
+        <f>A1&amp;D1&amp;C1&amp;B1&amp;C1&amp;E1</f>
+        <v>65:"A",</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F51" si="0">A2&amp;D2&amp;C2&amp;B2&amp;C2&amp;E2</f>
+        <v>66:"B",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>67:"C",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>68:"D",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>69:"E",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>70:"F",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>71:"G",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>72:"H",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>73:"I",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>74:"J",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>75:"K",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>76:"L",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>77:"M",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>78:"N",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>79:"O",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>80:"P",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>81:"Q",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>82:"R",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>83:"S",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>84:"T",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>85:"U",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>86:"V",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>87:"W",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>88:"X",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>89:"Y",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>90:"Z",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>48:"0",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>49:"1",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>50:"2",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>51</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>51:"3",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>52</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>52:"4",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>53</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>53:"5",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>54</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>54:"6",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>55</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>55:"7",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>56</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>56:"8",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>57:"9",</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>96</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>96:"0",</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>97</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>97:"1",</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>98</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>98:"2",</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>99</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>99:"3",</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>100:"4",</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>101</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>101:"5",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>102</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>102:"6",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>103</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>103:"7",</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>104</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>104:"8",</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>105</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>105:"9",</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>106:"*",</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>107:"+",</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>109:"-",</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>110:".",</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>111</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>111:"/",</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>